--- a/inst/extdata/testDataswshms.xlsx
+++ b/inst/extdata/testDataswshms.xlsx
@@ -976,8 +976,8 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF920000"/>
       <color rgb="FFE69F00"/>
-      <color rgb="FF920000"/>
       <color rgb="FF006DDB"/>
       <color rgb="FFB6DBFF"/>
       <color rgb="FF490092"/>
@@ -33190,7 +33190,7 @@
   <dimension ref="A1:AMK14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37673,7 +37673,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
